--- a/biology/Botanique/Rhodocybe_tronqué/Rhodocybe_tronqué.xlsx
+++ b/biology/Botanique/Rhodocybe_tronqué/Rhodocybe_tronqué.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Rhodocybe_tronqu%C3%A9</t>
+          <t>Rhodocybe_tronqué</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Clitopilus geminus
-Le Rhodocybe tronqué, Clitopilus geminus[1],[2] ou Rhodocybe gemina[3],[4], est une espèce de champignons basidiomycètes de la famille des Entolomataceae.
+Le Rhodocybe tronqué, Clitopilus geminus, ou Rhodocybe gemina est une espèce de champignons basidiomycètes de la famille des Entolomataceae.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Rhodocybe_tronqu%C3%A9</t>
+          <t>Rhodocybe_tronqué</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les rhodocybes sont des champignons rares qui n’ont pas été faciles à classer à cause de leur sporée rose et qui poussent dans les terrains calcaires.
 </t>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Rhodocybe_tronqu%C3%A9</t>
+          <t>Rhodocybe_tronqué</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Rhodocybe tronqué est un champignon ayant un chapeau épais (8–12 cm), de couleur cuir a rose ocracé, avec une cuticule pruineuse qui n’est pas facile à peler.
 Il a des lames rose pâle devenant brun rosé, bien en chair et un peu arrondies sur le pied.
@@ -560,7 +576,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Rhodocybe_tronqu%C3%A9</t>
+          <t>Rhodocybe_tronqué</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -578,7 +594,9 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est un champignon comestible de bonne qualité[réf. nécessaire] mais il y a un risque très grand de le confondre avec l’Entolome livide qui lui est un champignon très toxique.
 </t>
